--- a/static/Excel/Add_Vehicle_Data_Format.xlsx
+++ b/static/Excel/Add_Vehicle_Data_Format.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sai Land Devlopers\Sai-Land\static\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,19 +24,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Vehicle Number</t>
   </si>
   <si>
     <t>Vehicle Name</t>
   </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,10 +49,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -66,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,32 +100,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,28 +392,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
